--- a/Part1/BackPropagation_assignment.xlsx
+++ b/Part1/BackPropagation_assignment.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauls6\BP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D1C74-0E4C-4E96-A9BC-2EBC012D8CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B7E6A-B55B-4954-AA6E-2071BB74D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{682FB1C6-D520-4C1A-9D79-40F4F5C8F6F7}"/>
+    <workbookView xWindow="30630" yWindow="30" windowWidth="20850" windowHeight="15600" xr2:uid="{682FB1C6-D520-4C1A-9D79-40F4F5C8F6F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Plots" sheetId="2" r:id="rId2"/>
     <sheet name="Plot_Images" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -765,9 +765,43 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +811,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,48 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,7 +948,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$39:$Y$141</c:f>
+              <c:f>Data!$Y$39:$Y$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -2047,16 +2047,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>150496</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489790</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287655</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20004</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1151563</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2079,8 +2079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="150496" y="71438"/>
-          <a:ext cx="5221128" cy="2790826"/>
+          <a:off x="4359321" y="2331722"/>
+          <a:ext cx="4983742" cy="2678497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2921,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DDBB7-A0B2-454D-B40E-A6156292875D}">
   <dimension ref="A2:AG141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,139 +2949,139 @@
   </cols>
   <sheetData>
     <row r="2" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="55">
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="36">
         <v>2</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
     </row>
     <row r="3" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="40" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="40" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35"/>
       <c r="U4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="40" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
       <c r="U5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
     </row>
     <row r="7" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
       <c r="U7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="49" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
     </row>
     <row r="9" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="12">
         <v>3</v>
       </c>
@@ -3098,42 +3098,42 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="52" t="s">
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="52" t="s">
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="54"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="32"/>
     </row>
     <row r="13" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52" t="s">
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="15" t="s">
         <v>69</v>
       </c>
@@ -3144,14 +3144,14 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O14" s="52" t="s">
+      <c r="O14" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="54"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -3160,14 +3160,14 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="54"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="32"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -3176,33 +3176,33 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="17" spans="9:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O17" s="43">
+      <c r="O17" s="42">
         <v>4</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="47"/>
       <c r="X18" s="20" t="s">
         <v>74</v>
       </c>
@@ -3210,33 +3210,33 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="35"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="35"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="47"/>
       <c r="X20" s="20" t="s">
         <v>77</v>
       </c>
@@ -3244,17 +3244,17 @@
       <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="38"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="56"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
@@ -3279,12 +3279,12 @@
       <c r="Z23" s="20"/>
     </row>
     <row r="24" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -3293,12 +3293,12 @@
       <c r="Z24" s="20"/>
     </row>
     <row r="25" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -3307,12 +3307,12 @@
       <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -3321,12 +3321,12 @@
       <c r="Z26" s="20"/>
     </row>
     <row r="27" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -3397,11 +3397,11 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
       <c r="O31" s="25" t="s">
         <v>80</v>
       </c>
@@ -16309,19 +16309,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:Z12"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="O20:W20"/>
+    <mergeCell ref="O21:W21"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="O26:T26"/>
     <mergeCell ref="O17:W17"/>
     <mergeCell ref="O18:W18"/>
     <mergeCell ref="O19:W19"/>
@@ -16336,13 +16330,19 @@
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="O20:W20"/>
-    <mergeCell ref="O21:W21"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:Z12"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -16380,8 +16380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D82B8-F599-4A5E-957B-62B55F91687B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
